--- a/bdd.xlsx
+++ b/bdd.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l4dyl\Documents\GitHub\eara-c.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1E8E09F-74C4-42E8-B996-F200CC8F8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{0A477A1F-792B-4025-8E9D-34D24CA68E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="194">
   <si>
     <t xml:space="preserve"> Ain</t>
   </si>
@@ -598,6 +599,15 @@
   </si>
   <si>
     <t>");</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;&lt;/tr&gt;</t>
   </si>
 </sst>
 </file>
@@ -963,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D102"/>
     </sheetView>
   </sheetViews>
@@ -3207,6 +3217,2344 @@
     </row>
     <row r="108" spans="2:9">
       <c r="B108" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2">
+        <f>Feuil1!D2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Feuil1!F2</f>
+        <v xml:space="preserve"> Ain</v>
+      </c>
+      <c r="F2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" t="str">
+        <f>B2&amp;C2&amp;D2&amp;E2&amp;F2</f>
+        <v>&lt;tr&gt;&lt;td&gt;1&lt;/td&gt;&lt;td&gt; Ain&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3">
+        <f>Feuil1!D3</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Feuil1!F3</f>
+        <v xml:space="preserve"> Aisne</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <v>&lt;tr&gt;&lt;td&gt;2&lt;/td&gt;&lt;td&gt; Aisne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4">
+        <f>Feuil1!D4</f>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Feuil1!F4</f>
+        <v xml:space="preserve"> Allier</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;3&lt;/td&gt;&lt;td&gt; Allier&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5">
+        <f>Feuil1!D5</f>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Feuil1!F5</f>
+        <v xml:space="preserve"> Alpes-de-Haute-Provence</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;4&lt;/td&gt;&lt;td&gt; Alpes-de-Haute-Provence&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <f>Feuil1!D6</f>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Feuil1!F6</f>
+        <v xml:space="preserve"> Hautes-Alpes</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;5&lt;/td&gt;&lt;td&gt; Hautes-Alpes&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7">
+        <f>Feuil1!D7</f>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="str">
+        <f>Feuil1!F7</f>
+        <v xml:space="preserve"> Alpes-Maritimes</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;6&lt;/td&gt;&lt;td&gt; Alpes-Maritimes&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8">
+        <f>Feuil1!D8</f>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Feuil1!F8</f>
+        <v xml:space="preserve"> Ardèche</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;7&lt;/td&gt;&lt;td&gt; Ardèche&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9">
+        <f>Feuil1!D9</f>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" t="str">
+        <f>Feuil1!F9</f>
+        <v xml:space="preserve"> Ardennes</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;8&lt;/td&gt;&lt;td&gt; Ardennes&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10">
+        <f>Feuil1!D10</f>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="str">
+        <f>Feuil1!F10</f>
+        <v xml:space="preserve"> Ariège</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;9&lt;/td&gt;&lt;td&gt; Ariège&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Feuil1!D11</f>
+        <v>10 </v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="str">
+        <f>Feuil1!F11</f>
+        <v xml:space="preserve"> Aube</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;10 &lt;/td&gt;&lt;td&gt; Aube&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Feuil1!D12</f>
+        <v>11 </v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" t="str">
+        <f>Feuil1!F12</f>
+        <v xml:space="preserve"> Aude</v>
+      </c>
+      <c r="F12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;11 &lt;/td&gt;&lt;td&gt; Aude&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Feuil1!D13</f>
+        <v>12 </v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="str">
+        <f>Feuil1!F13</f>
+        <v xml:space="preserve"> Aveyron</v>
+      </c>
+      <c r="F13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;12 &lt;/td&gt;&lt;td&gt; Aveyron&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Feuil1!D14</f>
+        <v>13 </v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Feuil1!F14</f>
+        <v xml:space="preserve"> Bouches-du-Rhône</v>
+      </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;13 &lt;/td&gt;&lt;td&gt; Bouches-du-Rhône&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Feuil1!D15</f>
+        <v>14 </v>
+      </c>
+      <c r="D15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" t="str">
+        <f>Feuil1!F15</f>
+        <v xml:space="preserve"> Calvados</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;14 &lt;/td&gt;&lt;td&gt; Calvados&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Feuil1!D16</f>
+        <v>15 </v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="str">
+        <f>Feuil1!F16</f>
+        <v xml:space="preserve"> Cantal</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;15 &lt;/td&gt;&lt;td&gt; Cantal&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Feuil1!D17</f>
+        <v>16 </v>
+      </c>
+      <c r="D17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" t="str">
+        <f>Feuil1!F17</f>
+        <v xml:space="preserve"> Charente</v>
+      </c>
+      <c r="F17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;16 &lt;/td&gt;&lt;td&gt; Charente&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Feuil1!D18</f>
+        <v>17 </v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Feuil1!F18</f>
+        <v xml:space="preserve"> Charente-Maritime</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;17 &lt;/td&gt;&lt;td&gt; Charente-Maritime&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Feuil1!D19</f>
+        <v>18 </v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="str">
+        <f>Feuil1!F19</f>
+        <v xml:space="preserve"> Cher</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;18 &lt;/td&gt;&lt;td&gt; Cher&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Feuil1!D20</f>
+        <v>19 </v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="str">
+        <f>Feuil1!F20</f>
+        <v xml:space="preserve"> Corrèze</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;19 &lt;/td&gt;&lt;td&gt; Corrèze&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Feuil1!D21</f>
+        <v>2A </v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" t="str">
+        <f>Feuil1!F21</f>
+        <v xml:space="preserve"> Corse-du-Sud</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;2A &lt;/td&gt;&lt;td&gt; Corse-du-Sud&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Feuil1!D22</f>
+        <v>2B </v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="str">
+        <f>Feuil1!F22</f>
+        <v xml:space="preserve"> Haute-Corse</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;2B &lt;/td&gt;&lt;td&gt; Haute-Corse&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Feuil1!D23</f>
+        <v>21 </v>
+      </c>
+      <c r="D23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" t="str">
+        <f>Feuil1!F23</f>
+        <v xml:space="preserve"> Côte-d'Or</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;21 &lt;/td&gt;&lt;td&gt; Côte-d'Or&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Feuil1!D24</f>
+        <v>22 </v>
+      </c>
+      <c r="D24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" t="str">
+        <f>Feuil1!F24</f>
+        <v xml:space="preserve"> Côtes-d'Armor</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;22 &lt;/td&gt;&lt;td&gt; Côtes-d'Armor&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Feuil1!D25</f>
+        <v>23 </v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="str">
+        <f>Feuil1!F25</f>
+        <v xml:space="preserve"> Creuse</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;23 &lt;/td&gt;&lt;td&gt; Creuse&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="str">
+        <f>Feuil1!D26</f>
+        <v>24 </v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="str">
+        <f>Feuil1!F26</f>
+        <v xml:space="preserve"> Dordogne</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;24 &lt;/td&gt;&lt;td&gt; Dordogne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="str">
+        <f>Feuil1!D27</f>
+        <v>25 </v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="str">
+        <f>Feuil1!F27</f>
+        <v xml:space="preserve"> Doubs</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;25 &lt;/td&gt;&lt;td&gt; Doubs&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Feuil1!D28</f>
+        <v>26 </v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Feuil1!F28</f>
+        <v xml:space="preserve"> Drôme</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;26 &lt;/td&gt;&lt;td&gt; Drôme&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Feuil1!D29</f>
+        <v>27 </v>
+      </c>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Feuil1!F29</f>
+        <v xml:space="preserve"> Eure</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;27 &lt;/td&gt;&lt;td&gt; Eure&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Feuil1!D30</f>
+        <v>28 </v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="str">
+        <f>Feuil1!F30</f>
+        <v xml:space="preserve"> Eure-et-Loir</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;28 &lt;/td&gt;&lt;td&gt; Eure-et-Loir&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="str">
+        <f>Feuil1!D31</f>
+        <v>29 </v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Feuil1!F31</f>
+        <v xml:space="preserve"> Finistère</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;29 &lt;/td&gt;&lt;td&gt; Finistère&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Feuil1!D32</f>
+        <v>30 </v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Feuil1!F32</f>
+        <v xml:space="preserve"> Gard</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;30 &lt;/td&gt;&lt;td&gt; Gard&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="str">
+        <f>Feuil1!D33</f>
+        <v>31 </v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="str">
+        <f>Feuil1!F33</f>
+        <v xml:space="preserve"> Haute-Garonne</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;31 &lt;/td&gt;&lt;td&gt; Haute-Garonne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" t="str">
+        <f>Feuil1!D34</f>
+        <v>32 </v>
+      </c>
+      <c r="D34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" t="str">
+        <f>Feuil1!F34</f>
+        <v xml:space="preserve"> Gers</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;32 &lt;/td&gt;&lt;td&gt; Gers&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="str">
+        <f>Feuil1!D35</f>
+        <v>33 </v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" t="str">
+        <f>Feuil1!F35</f>
+        <v xml:space="preserve"> Gironde</v>
+      </c>
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;33 &lt;/td&gt;&lt;td&gt; Gironde&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" t="str">
+        <f>Feuil1!D36</f>
+        <v>34 </v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="str">
+        <f>Feuil1!F36</f>
+        <v xml:space="preserve"> Hérault</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;34 &lt;/td&gt;&lt;td&gt; Hérault&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" t="str">
+        <f>Feuil1!D37</f>
+        <v>35 </v>
+      </c>
+      <c r="D37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" t="str">
+        <f>Feuil1!F37</f>
+        <v xml:space="preserve"> Ille-et-Vilaine</v>
+      </c>
+      <c r="F37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;35 &lt;/td&gt;&lt;td&gt; Ille-et-Vilaine&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="str">
+        <f>Feuil1!D38</f>
+        <v>36 </v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="str">
+        <f>Feuil1!F38</f>
+        <v xml:space="preserve"> Indre</v>
+      </c>
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;36 &lt;/td&gt;&lt;td&gt; Indre&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" t="str">
+        <f>Feuil1!D39</f>
+        <v>37 </v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="str">
+        <f>Feuil1!F39</f>
+        <v xml:space="preserve"> Indre-et-Loire</v>
+      </c>
+      <c r="F39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;37 &lt;/td&gt;&lt;td&gt; Indre-et-Loire&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="str">
+        <f>Feuil1!D40</f>
+        <v>38 </v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="str">
+        <f>Feuil1!F40</f>
+        <v xml:space="preserve"> Isère</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;38 &lt;/td&gt;&lt;td&gt; Isère&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="str">
+        <f>Feuil1!D41</f>
+        <v>39 </v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" t="str">
+        <f>Feuil1!F41</f>
+        <v xml:space="preserve"> Jura</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;39 &lt;/td&gt;&lt;td&gt; Jura&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" t="str">
+        <f>Feuil1!D42</f>
+        <v>40 </v>
+      </c>
+      <c r="D42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" t="str">
+        <f>Feuil1!F42</f>
+        <v xml:space="preserve"> Landes</v>
+      </c>
+      <c r="F42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;40 &lt;/td&gt;&lt;td&gt; Landes&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="str">
+        <f>Feuil1!D43</f>
+        <v>41 </v>
+      </c>
+      <c r="D43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" t="str">
+        <f>Feuil1!F43</f>
+        <v xml:space="preserve"> Loir-et-Cher</v>
+      </c>
+      <c r="F43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;41 &lt;/td&gt;&lt;td&gt; Loir-et-Cher&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" t="str">
+        <f>Feuil1!D44</f>
+        <v>42 </v>
+      </c>
+      <c r="D44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" t="str">
+        <f>Feuil1!F44</f>
+        <v xml:space="preserve"> Loire</v>
+      </c>
+      <c r="F44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;42 &lt;/td&gt;&lt;td&gt; Loire&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" t="str">
+        <f>Feuil1!D45</f>
+        <v>43 </v>
+      </c>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" t="str">
+        <f>Feuil1!F45</f>
+        <v xml:space="preserve"> Haute-Loire</v>
+      </c>
+      <c r="F45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;43 &lt;/td&gt;&lt;td&gt; Haute-Loire&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="str">
+        <f>Feuil1!D46</f>
+        <v>44 </v>
+      </c>
+      <c r="D46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" t="str">
+        <f>Feuil1!F46</f>
+        <v xml:space="preserve"> Loire-Atlantique</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;44 &lt;/td&gt;&lt;td&gt; Loire-Atlantique&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="str">
+        <f>Feuil1!D47</f>
+        <v>45 </v>
+      </c>
+      <c r="D47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" t="str">
+        <f>Feuil1!F47</f>
+        <v xml:space="preserve"> Loiret</v>
+      </c>
+      <c r="F47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;45 &lt;/td&gt;&lt;td&gt; Loiret&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="str">
+        <f>Feuil1!D48</f>
+        <v>46 </v>
+      </c>
+      <c r="D48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" t="str">
+        <f>Feuil1!F48</f>
+        <v xml:space="preserve"> Lot</v>
+      </c>
+      <c r="F48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;46 &lt;/td&gt;&lt;td&gt; Lot&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="str">
+        <f>Feuil1!D49</f>
+        <v>47 </v>
+      </c>
+      <c r="D49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" t="str">
+        <f>Feuil1!F49</f>
+        <v xml:space="preserve"> Lot-et-Garonne</v>
+      </c>
+      <c r="F49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;47 &lt;/td&gt;&lt;td&gt; Lot-et-Garonne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="str">
+        <f>Feuil1!D50</f>
+        <v>48 </v>
+      </c>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="str">
+        <f>Feuil1!F50</f>
+        <v xml:space="preserve"> Lozère</v>
+      </c>
+      <c r="F50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;48 &lt;/td&gt;&lt;td&gt; Lozère&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="str">
+        <f>Feuil1!D51</f>
+        <v>49 </v>
+      </c>
+      <c r="D51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" t="str">
+        <f>Feuil1!F51</f>
+        <v xml:space="preserve"> Maine-et-Loire</v>
+      </c>
+      <c r="F51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;49 &lt;/td&gt;&lt;td&gt; Maine-et-Loire&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="str">
+        <f>Feuil1!D52</f>
+        <v>50 </v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" t="str">
+        <f>Feuil1!F52</f>
+        <v xml:space="preserve"> Manche</v>
+      </c>
+      <c r="F52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;50 &lt;/td&gt;&lt;td&gt; Manche&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" t="str">
+        <f>Feuil1!D53</f>
+        <v>51 </v>
+      </c>
+      <c r="D53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" t="str">
+        <f>Feuil1!F53</f>
+        <v xml:space="preserve"> Marne</v>
+      </c>
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;51 &lt;/td&gt;&lt;td&gt; Marne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="str">
+        <f>Feuil1!D54</f>
+        <v>52 </v>
+      </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" t="str">
+        <f>Feuil1!F54</f>
+        <v xml:space="preserve"> Haute-Marne</v>
+      </c>
+      <c r="F54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;52 &lt;/td&gt;&lt;td&gt; Haute-Marne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="str">
+        <f>Feuil1!D55</f>
+        <v>53 </v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="str">
+        <f>Feuil1!F55</f>
+        <v xml:space="preserve"> Mayenne</v>
+      </c>
+      <c r="F55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;53 &lt;/td&gt;&lt;td&gt; Mayenne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="str">
+        <f>Feuil1!D56</f>
+        <v>54 </v>
+      </c>
+      <c r="D56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" t="str">
+        <f>Feuil1!F56</f>
+        <v xml:space="preserve"> Meurthe-et-Moselle</v>
+      </c>
+      <c r="F56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;54 &lt;/td&gt;&lt;td&gt; Meurthe-et-Moselle&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="str">
+        <f>Feuil1!D57</f>
+        <v>55 </v>
+      </c>
+      <c r="D57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" t="str">
+        <f>Feuil1!F57</f>
+        <v xml:space="preserve"> Meuse</v>
+      </c>
+      <c r="F57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;55 &lt;/td&gt;&lt;td&gt; Meuse&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="str">
+        <f>Feuil1!D58</f>
+        <v>56 </v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" t="str">
+        <f>Feuil1!F58</f>
+        <v xml:space="preserve"> Morbihan</v>
+      </c>
+      <c r="F58" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;56 &lt;/td&gt;&lt;td&gt; Morbihan&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="str">
+        <f>Feuil1!D59</f>
+        <v>57 </v>
+      </c>
+      <c r="D59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" t="str">
+        <f>Feuil1!F59</f>
+        <v xml:space="preserve"> Moselle</v>
+      </c>
+      <c r="F59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;57 &lt;/td&gt;&lt;td&gt; Moselle&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" t="str">
+        <f>Feuil1!D60</f>
+        <v>58 </v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="str">
+        <f>Feuil1!F60</f>
+        <v xml:space="preserve"> Nièvre</v>
+      </c>
+      <c r="F60" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;58 &lt;/td&gt;&lt;td&gt; Nièvre&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" t="str">
+        <f>Feuil1!D61</f>
+        <v>59 </v>
+      </c>
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" t="str">
+        <f>Feuil1!F61</f>
+        <v xml:space="preserve"> Nord</v>
+      </c>
+      <c r="F61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;59 &lt;/td&gt;&lt;td&gt; Nord&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" t="str">
+        <f>Feuil1!D62</f>
+        <v>60 </v>
+      </c>
+      <c r="D62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" t="str">
+        <f>Feuil1!F62</f>
+        <v xml:space="preserve"> Oise</v>
+      </c>
+      <c r="F62" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;60 &lt;/td&gt;&lt;td&gt; Oise&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" t="str">
+        <f>Feuil1!D63</f>
+        <v>61 </v>
+      </c>
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" t="str">
+        <f>Feuil1!F63</f>
+        <v xml:space="preserve"> Orne</v>
+      </c>
+      <c r="F63" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;61 &lt;/td&gt;&lt;td&gt; Orne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" t="str">
+        <f>Feuil1!D64</f>
+        <v>62 </v>
+      </c>
+      <c r="D64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" t="str">
+        <f>Feuil1!F64</f>
+        <v xml:space="preserve"> Pas-de-Calais</v>
+      </c>
+      <c r="F64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;62 &lt;/td&gt;&lt;td&gt; Pas-de-Calais&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="str">
+        <f>Feuil1!D65</f>
+        <v>63 </v>
+      </c>
+      <c r="D65" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" t="str">
+        <f>Feuil1!F65</f>
+        <v xml:space="preserve"> Puy-de-Dôme</v>
+      </c>
+      <c r="F65" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;63 &lt;/td&gt;&lt;td&gt; Puy-de-Dôme&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="str">
+        <f>Feuil1!D66</f>
+        <v>64 </v>
+      </c>
+      <c r="D66" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" t="str">
+        <f>Feuil1!F66</f>
+        <v xml:space="preserve"> Pyrénées-Atlantiques</v>
+      </c>
+      <c r="F66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;64 &lt;/td&gt;&lt;td&gt; Pyrénées-Atlantiques&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="str">
+        <f>Feuil1!D67</f>
+        <v>65 </v>
+      </c>
+      <c r="D67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" t="str">
+        <f>Feuil1!F67</f>
+        <v xml:space="preserve"> Hautes-Pyrénées</v>
+      </c>
+      <c r="F67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">B67&amp;C67&amp;D67&amp;E67&amp;F67</f>
+        <v>&lt;tr&gt;&lt;td&gt;65 &lt;/td&gt;&lt;td&gt; Hautes-Pyrénées&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="str">
+        <f>Feuil1!D68</f>
+        <v>66 </v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" t="str">
+        <f>Feuil1!F68</f>
+        <v xml:space="preserve"> Pyrénées-Orientales</v>
+      </c>
+      <c r="F68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;66 &lt;/td&gt;&lt;td&gt; Pyrénées-Orientales&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="str">
+        <f>Feuil1!D69</f>
+        <v>67 </v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" t="str">
+        <f>Feuil1!F69</f>
+        <v xml:space="preserve"> Bas-Rhin</v>
+      </c>
+      <c r="F69" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;67 &lt;/td&gt;&lt;td&gt; Bas-Rhin&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="str">
+        <f>Feuil1!D70</f>
+        <v>68 </v>
+      </c>
+      <c r="D70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" t="str">
+        <f>Feuil1!F70</f>
+        <v xml:space="preserve"> Haut-Rhin</v>
+      </c>
+      <c r="F70" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;68 &lt;/td&gt;&lt;td&gt; Haut-Rhin&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" t="str">
+        <f>Feuil1!D71</f>
+        <v>69 </v>
+      </c>
+      <c r="D71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" t="str">
+        <f>Feuil1!F71</f>
+        <v xml:space="preserve"> Rhône</v>
+      </c>
+      <c r="F71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;69 &lt;/td&gt;&lt;td&gt; Rhône&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" t="str">
+        <f>Feuil1!D72</f>
+        <v>70 </v>
+      </c>
+      <c r="D72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" t="str">
+        <f>Feuil1!F72</f>
+        <v xml:space="preserve"> Haute-Saône</v>
+      </c>
+      <c r="F72" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;70 &lt;/td&gt;&lt;td&gt; Haute-Saône&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="str">
+        <f>Feuil1!D73</f>
+        <v>71 </v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" t="str">
+        <f>Feuil1!F73</f>
+        <v xml:space="preserve"> Saône-et-Loire</v>
+      </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;71 &lt;/td&gt;&lt;td&gt; Saône-et-Loire&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" t="str">
+        <f>Feuil1!D74</f>
+        <v>72 </v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" t="str">
+        <f>Feuil1!F74</f>
+        <v xml:space="preserve"> Sarthe</v>
+      </c>
+      <c r="F74" t="s">
+        <v>193</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;72 &lt;/td&gt;&lt;td&gt; Sarthe&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="str">
+        <f>Feuil1!D75</f>
+        <v>73 </v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" t="str">
+        <f>Feuil1!F75</f>
+        <v xml:space="preserve"> Savoie</v>
+      </c>
+      <c r="F75" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;73 &lt;/td&gt;&lt;td&gt; Savoie&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" t="str">
+        <f>Feuil1!D76</f>
+        <v>74 </v>
+      </c>
+      <c r="D76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" t="str">
+        <f>Feuil1!F76</f>
+        <v xml:space="preserve"> Haute-Savoie</v>
+      </c>
+      <c r="F76" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;74 &lt;/td&gt;&lt;td&gt; Haute-Savoie&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="str">
+        <f>Feuil1!D77</f>
+        <v>75 </v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" t="str">
+        <f>Feuil1!F77</f>
+        <v xml:space="preserve"> Paris</v>
+      </c>
+      <c r="F77" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;75 &lt;/td&gt;&lt;td&gt; Paris&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="str">
+        <f>Feuil1!D78</f>
+        <v>76 </v>
+      </c>
+      <c r="D78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" t="str">
+        <f>Feuil1!F78</f>
+        <v xml:space="preserve"> Seine-Maritime</v>
+      </c>
+      <c r="F78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;76 &lt;/td&gt;&lt;td&gt; Seine-Maritime&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" t="str">
+        <f>Feuil1!D79</f>
+        <v>77 </v>
+      </c>
+      <c r="D79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" t="str">
+        <f>Feuil1!F79</f>
+        <v xml:space="preserve"> Seine-et-Marne</v>
+      </c>
+      <c r="F79" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;77 &lt;/td&gt;&lt;td&gt; Seine-et-Marne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="str">
+        <f>Feuil1!D80</f>
+        <v>78 </v>
+      </c>
+      <c r="D80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" t="str">
+        <f>Feuil1!F80</f>
+        <v xml:space="preserve"> Yvelines</v>
+      </c>
+      <c r="F80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;78 &lt;/td&gt;&lt;td&gt; Yvelines&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="str">
+        <f>Feuil1!D81</f>
+        <v>79 </v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" t="str">
+        <f>Feuil1!F81</f>
+        <v xml:space="preserve"> Deux-Sèvres</v>
+      </c>
+      <c r="F81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;79 &lt;/td&gt;&lt;td&gt; Deux-Sèvres&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" t="str">
+        <f>Feuil1!D82</f>
+        <v>80 </v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" t="str">
+        <f>Feuil1!F82</f>
+        <v xml:space="preserve"> Somme</v>
+      </c>
+      <c r="F82" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;80 &lt;/td&gt;&lt;td&gt; Somme&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="str">
+        <f>Feuil1!D83</f>
+        <v>81 </v>
+      </c>
+      <c r="D83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" t="str">
+        <f>Feuil1!F83</f>
+        <v xml:space="preserve"> Tarn</v>
+      </c>
+      <c r="F83" t="s">
+        <v>193</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;81 &lt;/td&gt;&lt;td&gt; Tarn&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" t="str">
+        <f>Feuil1!D84</f>
+        <v>82 </v>
+      </c>
+      <c r="D84" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" t="str">
+        <f>Feuil1!F84</f>
+        <v xml:space="preserve"> Tarn-et-Garonne</v>
+      </c>
+      <c r="F84" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;82 &lt;/td&gt;&lt;td&gt; Tarn-et-Garonne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="str">
+        <f>Feuil1!D85</f>
+        <v>83 </v>
+      </c>
+      <c r="D85" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" t="str">
+        <f>Feuil1!F85</f>
+        <v xml:space="preserve"> Var</v>
+      </c>
+      <c r="F85" t="s">
+        <v>193</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;83 &lt;/td&gt;&lt;td&gt; Var&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="str">
+        <f>Feuil1!D86</f>
+        <v>84 </v>
+      </c>
+      <c r="D86" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" t="str">
+        <f>Feuil1!F86</f>
+        <v xml:space="preserve"> Vaucluse</v>
+      </c>
+      <c r="F86" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;84 &lt;/td&gt;&lt;td&gt; Vaucluse&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="str">
+        <f>Feuil1!D87</f>
+        <v>85 </v>
+      </c>
+      <c r="D87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" t="str">
+        <f>Feuil1!F87</f>
+        <v xml:space="preserve"> Vendée</v>
+      </c>
+      <c r="F87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;85 &lt;/td&gt;&lt;td&gt; Vendée&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="str">
+        <f>Feuil1!D88</f>
+        <v>86 </v>
+      </c>
+      <c r="D88" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" t="str">
+        <f>Feuil1!F88</f>
+        <v xml:space="preserve"> Vienne</v>
+      </c>
+      <c r="F88" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;86 &lt;/td&gt;&lt;td&gt; Vienne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="str">
+        <f>Feuil1!D89</f>
+        <v>87 </v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="str">
+        <f>Feuil1!F89</f>
+        <v xml:space="preserve"> Haute-Vienne</v>
+      </c>
+      <c r="F89" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;87 &lt;/td&gt;&lt;td&gt; Haute-Vienne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" t="str">
+        <f>Feuil1!D90</f>
+        <v>88 </v>
+      </c>
+      <c r="D90" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" t="str">
+        <f>Feuil1!F90</f>
+        <v xml:space="preserve"> Vosges</v>
+      </c>
+      <c r="F90" t="s">
+        <v>193</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;88 &lt;/td&gt;&lt;td&gt; Vosges&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" t="str">
+        <f>Feuil1!D91</f>
+        <v>89 </v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="str">
+        <f>Feuil1!F91</f>
+        <v xml:space="preserve"> Yonne</v>
+      </c>
+      <c r="F91" t="s">
+        <v>193</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;89 &lt;/td&gt;&lt;td&gt; Yonne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="str">
+        <f>Feuil1!D92</f>
+        <v>90 </v>
+      </c>
+      <c r="D92" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" t="str">
+        <f>Feuil1!F92</f>
+        <v xml:space="preserve"> Territoire de Belfort</v>
+      </c>
+      <c r="F92" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;90 &lt;/td&gt;&lt;td&gt; Territoire de Belfort&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="str">
+        <f>Feuil1!D93</f>
+        <v>91 </v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="str">
+        <f>Feuil1!F93</f>
+        <v xml:space="preserve"> Essonne</v>
+      </c>
+      <c r="F93" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;91 &lt;/td&gt;&lt;td&gt; Essonne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" t="str">
+        <f>Feuil1!D94</f>
+        <v>92 </v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="str">
+        <f>Feuil1!F94</f>
+        <v xml:space="preserve"> Hauts-de-Seine</v>
+      </c>
+      <c r="F94" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;92 &lt;/td&gt;&lt;td&gt; Hauts-de-Seine&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="str">
+        <f>Feuil1!D95</f>
+        <v>93 </v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" t="str">
+        <f>Feuil1!F95</f>
+        <v xml:space="preserve"> Seine-Saint-Denis</v>
+      </c>
+      <c r="F95" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;93 &lt;/td&gt;&lt;td&gt; Seine-Saint-Denis&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="str">
+        <f>Feuil1!D96</f>
+        <v>94 </v>
+      </c>
+      <c r="D96" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" t="str">
+        <f>Feuil1!F96</f>
+        <v xml:space="preserve"> Val-de-Marne</v>
+      </c>
+      <c r="F96" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;94 &lt;/td&gt;&lt;td&gt; Val-de-Marne&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="str">
+        <f>Feuil1!D97</f>
+        <v>95 </v>
+      </c>
+      <c r="D97" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" t="str">
+        <f>Feuil1!F97</f>
+        <v xml:space="preserve"> Val-d'Oise</v>
+      </c>
+      <c r="F97" t="s">
+        <v>193</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;95 &lt;/td&gt;&lt;td&gt; Val-d'Oise&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98">
+        <f>Feuil1!D98</f>
+        <v>971</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="str">
+        <f>Feuil1!F98</f>
+        <v>Guadeloupe</v>
+      </c>
+      <c r="F98" t="s">
+        <v>193</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;971&lt;/td&gt;&lt;td&gt;Guadeloupe&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99">
+        <f>Feuil1!D99</f>
+        <v>972</v>
+      </c>
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" t="str">
+        <f>Feuil1!F99</f>
+        <v>Martinique</v>
+      </c>
+      <c r="F99" t="s">
+        <v>193</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;972&lt;/td&gt;&lt;td&gt;Martinique&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100">
+        <f>Feuil1!D100</f>
+        <v>973</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" t="str">
+        <f>Feuil1!F100</f>
+        <v>Guyane</v>
+      </c>
+      <c r="F100" t="s">
+        <v>193</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;973&lt;/td&gt;&lt;td&gt;Guyane&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101">
+        <f>Feuil1!D101</f>
+        <v>974</v>
+      </c>
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" t="str">
+        <f>Feuil1!F101</f>
+        <v>La Réunion</v>
+      </c>
+      <c r="F101" t="s">
+        <v>193</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;974&lt;/td&gt;&lt;td&gt;La Réunion&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102">
+        <f>Feuil1!D102</f>
+        <v>976</v>
+      </c>
+      <c r="D102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" t="str">
+        <f>Feuil1!F102</f>
+        <v>Mayotte</v>
+      </c>
+      <c r="F102" t="s">
+        <v>193</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;976&lt;/td&gt;&lt;td&gt;Mayotte&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
